--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H2">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I2">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J2">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N2">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O2">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P2">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q2">
-        <v>113.8276856712226</v>
+        <v>150.8762484295422</v>
       </c>
       <c r="R2">
-        <v>113.8276856712226</v>
+        <v>1357.88623586588</v>
       </c>
       <c r="S2">
-        <v>0.02089249081147885</v>
+        <v>0.01940871212414432</v>
       </c>
       <c r="T2">
-        <v>0.02089249081147885</v>
+        <v>0.02037519014641239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H3">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I3">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J3">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P3">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q3">
-        <v>10.44028873385612</v>
+        <v>12.65771914512</v>
       </c>
       <c r="R3">
-        <v>10.44028873385612</v>
+        <v>113.91947230608</v>
       </c>
       <c r="S3">
-        <v>0.001916261717481444</v>
+        <v>0.001628288279918558</v>
       </c>
       <c r="T3">
-        <v>0.001916261717481444</v>
+        <v>0.001709370673556633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H4">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I4">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J4">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N4">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O4">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P4">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q4">
-        <v>256.3947198006601</v>
+        <v>386.5552324465067</v>
       </c>
       <c r="R4">
-        <v>256.3947198006601</v>
+        <v>3478.99709201856</v>
       </c>
       <c r="S4">
-        <v>0.04705994236779293</v>
+        <v>0.04972644339138347</v>
       </c>
       <c r="T4">
-        <v>0.04705994236779293</v>
+        <v>0.05220262596114519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H5">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I5">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J5">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N5">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O5">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P5">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q5">
-        <v>305.405733906309</v>
+        <v>318.2419032157401</v>
       </c>
       <c r="R5">
-        <v>305.405733906309</v>
+        <v>2864.17712894166</v>
       </c>
       <c r="S5">
-        <v>0.05605566389042072</v>
+        <v>0.0409386205558958</v>
       </c>
       <c r="T5">
-        <v>0.05605566389042072</v>
+        <v>0.0429772038877607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H6">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I6">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J6">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N6">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O6">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P6">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q6">
-        <v>49.93810031176399</v>
+        <v>71.28000105592335</v>
       </c>
       <c r="R6">
-        <v>49.93810031176399</v>
+        <v>427.68000633554</v>
       </c>
       <c r="S6">
-        <v>0.00916588346458851</v>
+        <v>0.00916945533245532</v>
       </c>
       <c r="T6">
-        <v>0.00916588346458851</v>
+        <v>0.006417372251622248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H7">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I7">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J7">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N7">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O7">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P7">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q7">
-        <v>71.94417820859914</v>
+        <v>112.901032031704</v>
       </c>
       <c r="R7">
-        <v>71.94417820859914</v>
+        <v>1016.109288285336</v>
       </c>
       <c r="S7">
-        <v>0.01320498675958374</v>
+        <v>0.01452358241957109</v>
       </c>
       <c r="T7">
-        <v>0.01320498675958374</v>
+        <v>0.015246800071692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H8">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I8">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J8">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N8">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O8">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P8">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q8">
-        <v>6.598728497276901</v>
+        <v>9.471799368864001</v>
       </c>
       <c r="R8">
-        <v>6.598728497276901</v>
+        <v>85.24619431977601</v>
       </c>
       <c r="S8">
-        <v>0.001211162940578483</v>
+        <v>0.001218451738835372</v>
       </c>
       <c r="T8">
-        <v>0.001211162940578483</v>
+        <v>0.001279125874205423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H9">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I9">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J9">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N9">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O9">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P9">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q9">
-        <v>162.0529074654286</v>
+        <v>289.260139582848</v>
       </c>
       <c r="R9">
-        <v>162.0529074654286</v>
+        <v>2603.341256245632</v>
       </c>
       <c r="S9">
-        <v>0.02974398416545205</v>
+        <v>0.03721040810989586</v>
       </c>
       <c r="T9">
-        <v>0.02974398416545205</v>
+        <v>0.03906334103031884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H10">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I10">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J10">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N10">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O10">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P10">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q10">
-        <v>193.0300560581317</v>
+        <v>238.141123488828</v>
       </c>
       <c r="R10">
-        <v>193.0300560581317</v>
+        <v>2143.270111399452</v>
       </c>
       <c r="S10">
-        <v>0.03542968170487311</v>
+        <v>0.03063446075061578</v>
       </c>
       <c r="T10">
-        <v>0.03542968170487311</v>
+        <v>0.03215993718872896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.96730680095164</v>
+        <v>3.649884</v>
       </c>
       <c r="H11">
-        <v>2.96730680095164</v>
+        <v>10.949652</v>
       </c>
       <c r="I11">
-        <v>0.08538306305265352</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J11">
-        <v>0.08538306305265352</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N11">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O11">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P11">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q11">
-        <v>31.56310845680974</v>
+        <v>53.33898321439801</v>
       </c>
       <c r="R11">
-        <v>31.56310845680974</v>
+        <v>320.033899286388</v>
       </c>
       <c r="S11">
-        <v>0.005793247482166126</v>
+        <v>0.00686152380496301</v>
       </c>
       <c r="T11">
-        <v>0.005793247482166126</v>
+        <v>0.004802133918899233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H12">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I12">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J12">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N12">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O12">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P12">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q12">
-        <v>313.2152692614396</v>
+        <v>522.6805148661784</v>
       </c>
       <c r="R12">
-        <v>313.2152692614396</v>
+        <v>4704.124633795606</v>
       </c>
       <c r="S12">
-        <v>0.05748906425068331</v>
+        <v>0.0672375920764931</v>
       </c>
       <c r="T12">
-        <v>0.05748906425068331</v>
+        <v>0.07058576142418088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H13">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I13">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J13">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N13">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O13">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P13">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q13">
-        <v>28.72814138018304</v>
+        <v>43.85013034634401</v>
       </c>
       <c r="R13">
-        <v>28.72814138018304</v>
+        <v>394.6511731170961</v>
       </c>
       <c r="S13">
-        <v>0.005272903742855238</v>
+        <v>0.005640878304949632</v>
       </c>
       <c r="T13">
-        <v>0.005272903742855238</v>
+        <v>0.0059217720022311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H14">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I14">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J14">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N14">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O14">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P14">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q14">
-        <v>705.511499474138</v>
+        <v>1339.143105839541</v>
       </c>
       <c r="R14">
-        <v>705.511499474138</v>
+        <v>12052.28795255587</v>
       </c>
       <c r="S14">
-        <v>0.1294930353124324</v>
+        <v>0.1722672939234021</v>
       </c>
       <c r="T14">
-        <v>0.1294930353124324</v>
+        <v>0.1808455320088362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H15">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I15">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J15">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N15">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O15">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P15">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q15">
-        <v>840.3732239250463</v>
+        <v>1102.485272242663</v>
       </c>
       <c r="R15">
-        <v>840.3732239250463</v>
+        <v>9922.367450183969</v>
       </c>
       <c r="S15">
-        <v>0.1542462165995323</v>
+        <v>0.1418236435011791</v>
       </c>
       <c r="T15">
-        <v>0.1542462165995323</v>
+        <v>0.1488859067572432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.9184295628007</v>
+        <v>16.89730566666667</v>
       </c>
       <c r="H16">
-        <v>12.9184295628007</v>
+        <v>50.691917</v>
       </c>
       <c r="I16">
-        <v>0.3717226292704648</v>
+        <v>0.4187351475039348</v>
       </c>
       <c r="J16">
-        <v>0.3717226292704648</v>
+        <v>0.428470671797166</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N16">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O16">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P16">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q16">
-        <v>137.4127519444799</v>
+        <v>246.9352733738622</v>
       </c>
       <c r="R16">
-        <v>137.4127519444799</v>
+        <v>1481.611640243173</v>
       </c>
       <c r="S16">
-        <v>0.02522140936496149</v>
+        <v>0.03176573969791086</v>
       </c>
       <c r="T16">
-        <v>0.02522140936496149</v>
+        <v>0.02223169960467462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H17">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I17">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J17">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N17">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O17">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P17">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q17">
-        <v>281.7761338564523</v>
+        <v>376.6930880473607</v>
       </c>
       <c r="R17">
-        <v>281.7761338564523</v>
+        <v>3390.237792426246</v>
       </c>
       <c r="S17">
-        <v>0.05171857138951115</v>
+        <v>0.048457777689776</v>
       </c>
       <c r="T17">
-        <v>0.05171857138951115</v>
+        <v>0.05087078566503778</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H18">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I18">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J18">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N18">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O18">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P18">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q18">
-        <v>25.84454017863591</v>
+        <v>31.602557473704</v>
       </c>
       <c r="R18">
-        <v>25.84454017863591</v>
+        <v>284.423017263336</v>
       </c>
       <c r="S18">
-        <v>0.004743633458108301</v>
+        <v>0.004065351218487396</v>
       </c>
       <c r="T18">
-        <v>0.004743633458108301</v>
+        <v>0.00426778982339519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H19">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I19">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J19">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N19">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O19">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P19">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q19">
-        <v>634.6954386414557</v>
+        <v>965.1133675897279</v>
       </c>
       <c r="R19">
-        <v>634.6954386414557</v>
+        <v>8686.020308307552</v>
       </c>
       <c r="S19">
-        <v>0.1164951087401101</v>
+        <v>0.1241521294019979</v>
       </c>
       <c r="T19">
-        <v>0.1164951087401101</v>
+        <v>0.1303344203091593</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H20">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I20">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J20">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N20">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O20">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P20">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q20">
-        <v>756.0203517294955</v>
+        <v>794.555316136383</v>
       </c>
       <c r="R20">
-        <v>756.0203517294955</v>
+        <v>7150.997845227447</v>
       </c>
       <c r="S20">
-        <v>0.1387636773835659</v>
+        <v>0.1022115512422828</v>
       </c>
       <c r="T20">
-        <v>0.1387636773835659</v>
+        <v>0.1073012870921285</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.6217358952079</v>
+        <v>12.177799</v>
       </c>
       <c r="H21">
-        <v>11.6217358952079</v>
+        <v>36.533397</v>
       </c>
       <c r="I21">
-        <v>0.3344107890709461</v>
+        <v>0.3017802104744788</v>
       </c>
       <c r="J21">
-        <v>0.3344107890709461</v>
+        <v>0.3087965514427589</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N21">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O21">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P21">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q21">
-        <v>123.619879952826</v>
+        <v>177.9649480502155</v>
       </c>
       <c r="R21">
-        <v>123.619879952826</v>
+        <v>1067.789688301293</v>
       </c>
       <c r="S21">
-        <v>0.02268979809965061</v>
+        <v>0.02289340092193471</v>
       </c>
       <c r="T21">
-        <v>0.02268979809965061</v>
+        <v>0.01602226855303817</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H22">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I22">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J22">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N22">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O22">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P22">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q22">
-        <v>61.84152646387744</v>
+        <v>85.08566419438399</v>
       </c>
       <c r="R22">
-        <v>61.84152646387744</v>
+        <v>510.513985166304</v>
       </c>
       <c r="S22">
-        <v>0.01135069658840502</v>
+        <v>0.01094541506320395</v>
       </c>
       <c r="T22">
-        <v>0.01135069658840502</v>
+        <v>0.007660302642020149</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H23">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I23">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J23">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N23">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O23">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P23">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q23">
-        <v>5.672112089585539</v>
+        <v>7.138237143744001</v>
       </c>
       <c r="R23">
-        <v>5.672112089585539</v>
+        <v>42.829422862464</v>
       </c>
       <c r="S23">
-        <v>0.001041087227720942</v>
+        <v>0.000918262425258408</v>
       </c>
       <c r="T23">
-        <v>0.001041087227720942</v>
+        <v>0.0006426588705550435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H24">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I24">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J24">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N24">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O24">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P24">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q24">
-        <v>139.2968745367328</v>
+        <v>217.995271243008</v>
       </c>
       <c r="R24">
-        <v>139.2968745367328</v>
+        <v>1307.971627458048</v>
       </c>
       <c r="S24">
-        <v>0.02556723045158223</v>
+        <v>0.02804289944918759</v>
       </c>
       <c r="T24">
-        <v>0.02556723045158223</v>
+        <v>0.01962621750751913</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H25">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I25">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J25">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N25">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O25">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P25">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q25">
-        <v>165.9241041774231</v>
+        <v>179.470420238088</v>
       </c>
       <c r="R25">
-        <v>165.9241041774231</v>
+        <v>1076.822521428528</v>
       </c>
       <c r="S25">
-        <v>0.03045452256617454</v>
+        <v>0.02308706477962911</v>
       </c>
       <c r="T25">
-        <v>0.03045452256617454</v>
+        <v>0.01615780692706908</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.5506272588928</v>
+        <v>2.750664</v>
       </c>
       <c r="H26">
-        <v>2.5506272588928</v>
+        <v>5.501328</v>
       </c>
       <c r="I26">
-        <v>0.07339327635417302</v>
+        <v>0.06816469551390787</v>
       </c>
       <c r="J26">
-        <v>0.07339327635417302</v>
+        <v>0.04649967575573358</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N26">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O26">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P26">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q26">
-        <v>27.13090698255736</v>
+        <v>40.197885994308</v>
       </c>
       <c r="R26">
-        <v>27.13090698255736</v>
+        <v>160.791543977232</v>
       </c>
       <c r="S26">
-        <v>0.00497973952029028</v>
+        <v>0.005171053796628817</v>
       </c>
       <c r="T26">
-        <v>0.00497973952029028</v>
+        <v>0.002412689808570179</v>
       </c>
     </row>
   </sheetData>
